--- a/data/outputs/management/60.xlsx
+++ b/data/outputs/management/60.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ61"/>
+  <dimension ref="A1:BR61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +924,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1132,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1325,6 +1332,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1540,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1747,6 +1756,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1956,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>15404574</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2157,6 +2172,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2356,6 +2372,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2569,6 +2586,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2752,6 +2770,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2979,6 +2998,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3206,6 +3226,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3437,6 +3458,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3664,6 +3686,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3883,6 +3906,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4110,6 +4134,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4317,6 +4342,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4544,6 +4570,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>8455861</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4759,6 +4790,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4758641</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4962,6 +4998,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5169,6 +5206,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5368,6 +5406,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5583,6 +5622,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5782,6 +5822,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4335082</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5993,6 +6038,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6208,6 +6254,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>14916694</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6411,6 +6462,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4436109</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6610,6 +6666,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6821,6 +6878,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7024,6 +7082,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7231,6 +7290,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7430,6 +7490,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7629,6 +7690,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7836,6 +7898,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8043,6 +8106,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8246,6 +8310,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8457,6 +8522,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8672,6 +8738,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8879,6 +8946,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9086,6 +9154,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9285,6 +9354,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9488,6 +9558,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9695,6 +9766,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9910,6 +9982,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10109,6 +10182,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10320,6 +10394,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10527,6 +10602,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10742,6 +10818,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10957,6 +11034,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11164,6 +11242,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11363,6 +11442,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11562,6 +11642,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11773,6 +11854,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11980,6 +12062,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>24930235</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12187,6 +12274,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>5907369</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12390,6 +12482,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12589,6 +12682,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12780,6 +12874,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12987,6 +13082,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13186,6 +13282,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
